--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ReportGenerator\dev\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FCE157-BDB5-4046-9B71-9490A4D28ECE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19D6B41-8536-4474-9A23-AA67A7DFEAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="701" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="-12840" windowWidth="21600" windowHeight="11325" tabRatio="701" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="3 - AETP list" sheetId="24" r:id="rId16"/>
     <sheet name="3-CastRulesEvoByQualityCategory" sheetId="25" r:id="rId17"/>
     <sheet name="3-ListTagsDocByCat" sheetId="26" r:id="rId18"/>
+    <sheet name="3-ListViolBookmarks" sheetId="27" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -41,12 +42,22 @@
     <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">'1 - Information'!$D$4:$D$4</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">'1 - Information'!$F$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="272">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -656,9 +667,6 @@
   </si>
   <si>
     <t>RepGen:TABLE;RULES_LIST_LARGEST_VARIATION;BCID=60011,VARIATION=decrease,DATA=number,COUNT=50</t>
-  </si>
-  <si>
-    <t>*  LBL=violations or vulnerabilities (vulnerabilities if not set), this change the headers from Vulnerabilities to Violations</t>
   </si>
   <si>
     <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=CISQ-Security,COMPLIANCE=true,LBL=violations</t>
@@ -936,9 +944,6 @@
     </r>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>* Block Name = QUALITY_TAGS_RULES_EVOLUTION</t>
   </si>
   <si>
@@ -978,13 +983,76 @@
     <t>GREATER2 : components should have prop2 value greater than this value</t>
   </si>
   <si>
-    <t>UPDATED</t>
-  </si>
-  <si>
     <t>When using LOWER and GREATER parameters, the ORDER parameter can be overridden to get the most accurate components corresponding to the request. As the filter can be done only after requesting data from the RestAPI, the list can be truncated. So the option NBSET define the number of objects returns from the rest api before the filtering and the limitation of display (COUNT), this option is set to 500 by default, to avoid too long server response time.</t>
   </si>
   <si>
     <t>RepGen:TABLE;TOP_COMPONENTS_BY_PROPERTIES;PROP1=cyclomaticComplexity,PROP2=ratioCommentLinesCodeLines,ORDER1=desc,ORDER2=asc,LOWER2=0.10,COUNT=100,NBSET=10000</t>
+  </si>
+  <si>
+    <t>* EVOLUTION=true|false. For display of added and removed columns. If not exists, the colums are displayed only if there is a previous snapshot</t>
+  </si>
+  <si>
+    <t>* DESC=true|false. For display rationale, description and remediation of the rule. By default if not present, it is false</t>
+  </si>
+  <si>
+    <t>3.16.	Evolution of CAST rules associated to a quality standard category</t>
+  </si>
+  <si>
+    <t>3.17.	List of violations with bookmarks without source code for a list of rules</t>
+  </si>
+  <si>
+    <t>* Block Name = LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE</t>
+  </si>
+  <si>
+    <t>* COUNT=N where N indicates the top number of violations ; by default 5 (-1 correspond to all violations). All bookmarks of a violation are displayed.</t>
+  </si>
+  <si>
+    <t>To use the quality standard tags selection, the Quality Standards Support extension should be installed on the central where the application resides, with minimum version 20190624.</t>
+  </si>
+  <si>
+    <t>This component is only relevant for excel document. The results would not be readable on powerpoint or word.</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=CISQ-Security,COUNT=-1</t>
+  </si>
+  <si>
+    <t>* EVOLUTION=true|false to display added and removed violations columns. By default or if not exists, is true if there is a previous snapshot.</t>
+  </si>
+  <si>
+    <t>* HEADER=NO to not display headers (useful for excel report when you want to define your own customized headers). By default if option is not present or different from NO, headers are displayed</t>
+  </si>
+  <si>
+    <t>2.26. - Metric Evolution</t>
+  </si>
+  <si>
+    <t>This component display the evolution of a metric, in percentage or in absolute, for the application, or for a module or a technology if specified.</t>
+  </si>
+  <si>
+    <t>* Block Name = METRIC_EVOLUTION</t>
+  </si>
+  <si>
+    <t>- ID=can be quality indicator ID (BC, TC or QR), or sizing measure, or background fact. Mandatory parameter</t>
+  </si>
+  <si>
+    <t>- FORMAT=ABSOLUTE or PERCENT to get the variation either direct value, either percentage. Default is percent. (optional)</t>
+  </si>
+  <si>
+    <t>If no module and no technology this is the value for the application that is taken.</t>
+  </si>
+  <si>
+    <t>Variation in percent = (current - previous) / previous</t>
+  </si>
+  <si>
+    <t>Variation in absolute = current - previous</t>
+  </si>
+  <si>
+    <t>- MODULE=name of the module for which you want the metric evolution (optional)</t>
+  </si>
+  <si>
+    <t>- TECHNO=name of the technology for which you want the metric evolution (optional)</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;METRIC_EVOLUTION;ID=60017</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1062,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,14 +1239,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1249,7 +1309,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1312,7 +1372,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1327,9 +1389,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1716,29 +1775,29 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1746,7 +1805,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="3"/>
@@ -1754,7 +1813,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="3"/>
@@ -1762,54 +1821,54 @@
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="17"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="17" t="s">
         <v>77</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
@@ -1817,7 +1876,7 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -1825,7 +1884,7 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
     </row>
@@ -1848,64 +1907,74 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92753F2C-AEBD-49B1-A0DF-FB40FC05FDC6}">
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1917,112 +1986,109 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48014B-133C-4EB1-BCC8-C47F0FE2BA42}">
-  <dimension ref="B1:C20"/>
+  <dimension ref="B1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2039,51 +2105,51 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>202</v>
       </c>
@@ -2102,52 +2168,52 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="22"/>
     </row>
   </sheetData>
@@ -2164,88 +2230,88 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2262,56 +2328,56 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="22"/>
     </row>
   </sheetData>
@@ -2328,46 +2394,46 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
     </row>
   </sheetData>
@@ -2378,60 +2444,70 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ECF1C8-5AB3-4063-B1EA-9D9688F82C45}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="90.28515625" customWidth="1"/>
+    <col min="2" max="2" width="90.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="29"/>
     </row>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2445,58 +2521,56 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="90.28515625" customWidth="1"/>
-    <col min="3" max="3" width="109.7109375" customWidth="1"/>
+    <col min="2" max="2" width="90.33203125" customWidth="1"/>
+    <col min="3" max="3" width="109.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23"/>
     </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2504,653 +2578,797 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C08B-030D-4CD0-9D7A-3D29C37EEAE3}">
+  <dimension ref="B1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="90.33203125" customWidth="1"/>
+    <col min="3" max="3" width="109.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:B150"/>
+  <dimension ref="B2:B163"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="18" customWidth="1"/>
     <col min="6" max="7" width="38" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="18"/>
-    <col min="11" max="11" width="14.28515625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="18"/>
+    <col min="8" max="8" width="11.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" style="18"/>
+    <col min="11" max="11" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B38" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B43" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B53" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B63" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B73" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B78" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B83" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B88" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B95" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B102" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B109" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B114" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B119" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B124" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B129" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B134" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B143" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B144" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B145" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B146" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B147" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B148" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B149" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="18" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B152" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3167,19 +3385,19 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -3187,7 +3405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -3195,7 +3413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -3203,7 +3421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -3221,32 +3439,32 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
@@ -3254,7 +3472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>62</v>
       </c>
@@ -3262,7 +3480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>64</v>
       </c>
@@ -3270,19 +3488,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:8" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3305,22 +3523,22 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>82</v>
       </c>
@@ -3328,7 +3546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>83</v>
       </c>
@@ -3336,7 +3554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>84</v>
       </c>
@@ -3344,7 +3562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>85</v>
       </c>
@@ -3352,7 +3570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>86</v>
       </c>
@@ -3360,7 +3578,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>87</v>
       </c>
@@ -3368,7 +3586,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>88</v>
       </c>
@@ -3376,7 +3594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>89</v>
       </c>
@@ -3384,7 +3602,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>90</v>
       </c>
@@ -3392,7 +3610,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>102</v>
       </c>
@@ -3400,8 +3618,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>101</v>
       </c>
@@ -3419,92 +3637,92 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>164</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>169</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -3523,47 +3741,47 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16384" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>171</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>154</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>155</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -19949,35 +20167,35 @@
       <c r="XFC6" s="22"/>
       <c r="XFD6" s="22"/>
     </row>
-    <row r="7" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -19996,62 +20214,62 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -20063,77 +20281,96 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976C8EF6-9462-404B-9CE3-9B69F0A9930C}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>203</v>
-      </c>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19D6B41-8536-4474-9A23-AA67A7DFEAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0333D-AFA8-4538-82D0-F07F0EBCDFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="-12840" windowWidth="21600" windowHeight="11325" tabRatio="701" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="274">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>* Block Name = RULES_LIST_STATISTICS_RATIO</t>
-  </si>
-  <si>
-    <t>* METRICS=List of metrics id (BC, TC or QR) or quality standards tags separated by ‘|’.</t>
   </si>
   <si>
     <t>* CRITICAL=true : add this option if you have selected a BC or a TC and want only critical rules to be selected (by default it is false). This option has no effect on selection by QR or quality standard tag.</t>
@@ -947,9 +944,6 @@
     <t>* Block Name = QUALITY_TAGS_RULES_EVOLUTION</t>
   </si>
   <si>
-    <t>* STD= Name of the quality standard category for which you want the details per tag, for example, STIG-V4R8-CAT1 will list total, added and removed violations for cast rules associated to all tags belonged to category STIG-V4R8-CAT1</t>
-  </si>
-  <si>
     <t>To use this component, the Quality Standards Mapping extension should be installed on the central where the application resides, with minimum version 20190624</t>
   </si>
   <si>
@@ -1053,6 +1047,18 @@
   </si>
   <si>
     <t>RepGen:TEXT;METRIC_EVOLUTION;ID=60017</t>
+  </si>
+  <si>
+    <t>* METRICS=List of metrics id (BC, TC or QR) or quality standards tags separated by ‘|’. It can also be the name for a BC or a shortName for a TC</t>
+  </si>
+  <si>
+    <t>UPDATED</t>
+  </si>
+  <si>
+    <t>* STD= Name of the quality standard category, or BC name, or BC id, for which you want the details per tag or TC, for example, STIG-V4R8-CAT1 will list total, added and removed violations for cast rules associated to all tags belonged to category STIG-V4R8-CAT1</t>
+  </si>
+  <si>
+    <t>The STD parameter can also take the name, shortName or ID os a Business Criterion</t>
   </si>
 </sst>
 </file>
@@ -1771,33 +1777,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1805,7 +1811,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="3"/>
@@ -1813,7 +1819,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="3"/>
@@ -1821,54 +1827,54 @@
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>77</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
@@ -1876,7 +1882,7 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -1884,7 +1890,7 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
     </row>
@@ -1907,75 +1913,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92753F2C-AEBD-49B1-A0DF-FB40FC05FDC6}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="121.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1992,103 +2005,103 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="121.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2105,53 +2118,53 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2168,52 +2181,52 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
     </row>
   </sheetData>
@@ -2230,88 +2243,88 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2328,56 +2341,56 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
     </row>
   </sheetData>
@@ -2394,46 +2407,46 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
     </row>
   </sheetData>
@@ -2450,64 +2463,66 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="90.33203125" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2524,53 +2539,53 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="90.33203125" customWidth="1"/>
-    <col min="3" max="3" width="109.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C1" s="29"/>
     </row>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-    </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2583,77 +2598,77 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="90.33203125" customWidth="1"/>
-    <col min="3" max="3" width="109.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2666,709 +2681,709 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="18" customWidth="1"/>
     <col min="6" max="7" width="38" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="18"/>
-    <col min="11" max="11" width="14.33203125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="18"/>
+    <col min="8" max="8" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="18"/>
+    <col min="11" max="11" width="14.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B83" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B88" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B95" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B102" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B109" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B114" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B119" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="2:2" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B124" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B129" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B134" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B152" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="21" t="s">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="21" t="s">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="18" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="18" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3385,19 +3400,19 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -3405,7 +3420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -3413,7 +3428,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -3421,7 +3436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -3439,32 +3454,32 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
@@ -3472,7 +3487,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>62</v>
       </c>
@@ -3480,7 +3495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>64</v>
       </c>
@@ -3488,19 +3503,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:8" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3523,22 +3538,22 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>82</v>
       </c>
@@ -3546,7 +3561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>83</v>
       </c>
@@ -3554,7 +3569,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>84</v>
       </c>
@@ -3562,7 +3577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>85</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>86</v>
       </c>
@@ -3578,7 +3593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>87</v>
       </c>
@@ -3586,7 +3601,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>88</v>
       </c>
@@ -3594,7 +3609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>89</v>
       </c>
@@ -3602,7 +3617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>90</v>
       </c>
@@ -3610,7 +3625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>102</v>
       </c>
@@ -3618,8 +3633,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>101</v>
       </c>
@@ -3637,92 +3652,92 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>164</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>169</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -3741,47 +3756,47 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>171</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>154</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>155</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -20167,35 +20182,35 @@
       <c r="XFC6" s="22"/>
       <c r="XFD6" s="22"/>
     </row>
-    <row r="7" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:16384" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -20214,62 +20229,62 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -20287,90 +20302,92 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="121.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0333D-AFA8-4538-82D0-F07F0EBCDFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0164B4E3-CBF3-4B85-9799-0EE57D79EB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -1050,9 +1050,6 @@
   </si>
   <si>
     <t>* METRICS=List of metrics id (BC, TC or QR) or quality standards tags separated by ‘|’. It can also be the name for a BC or a shortName for a TC</t>
-  </si>
-  <si>
-    <t>UPDATED</t>
   </si>
   <si>
     <t>* STD= Name of the quality standard category, or BC name, or BC id, for which you want the details per tag or TC, for example, STIG-V4R8-CAT1 will list total, added and removed violations for cast rules associated to all tags belonged to category STIG-V4R8-CAT1</t>
@@ -1916,7 +1913,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,9 +1925,7 @@
       <c r="B1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>271</v>
-      </c>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
@@ -1944,7 +1939,7 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2472,9 +2467,7 @@
       <c r="B1" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>271</v>
-      </c>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
@@ -2483,7 +2476,7 @@
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20311,9 +20304,7 @@
       <c r="B1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>271</v>
-      </c>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0164B4E3-CBF3-4B85-9799-0EE57D79EB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935EE5A5-3902-4263-A1C9-5FD8C7391569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -56,6 +56,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
   <si>
@@ -375,9 +397,6 @@
   </si>
   <si>
     <t xml:space="preserve">* Options = </t>
-  </si>
-  <si>
-    <t>- PARAMS=SZ a SZ b, (SZ pour sizing measure, QR pour quality rule, BF for background fact)</t>
   </si>
   <si>
     <t>- EXPR=b/a, (operators can be +, -, *, / , (, ) )</t>
@@ -1056,6 +1075,9 @@
   </si>
   <si>
     <t>The STD parameter can also take the name, shortName or ID os a Business Criterion</t>
+  </si>
+  <si>
+    <t>You can put a category id instead of a sizing measure, for example 65104 for  very large size artifact.</t>
   </si>
 </sst>
 </file>
@@ -1923,43 +1945,43 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1967,12 +1989,12 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1983,7 +2005,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2008,62 +2030,62 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2071,32 +2093,32 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2121,37 +2143,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2159,7 +2181,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2184,33 +2206,33 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2218,7 +2240,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2246,52 +2268,52 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2299,27 +2321,27 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2344,37 +2366,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2382,7 +2404,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2410,27 +2432,27 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2438,7 +2460,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2465,33 +2487,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2499,12 +2521,12 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2515,7 +2537,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2540,18 +2562,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2562,12 +2584,12 @@
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2578,7 +2600,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2602,33 +2624,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2636,32 +2658,32 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2672,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:B163"/>
+  <dimension ref="B2:B164"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2753,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2771,7 +2793,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -2931,62 +2953,62 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3028,7 @@
     </row>
     <row r="78" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3048,7 @@
     </row>
     <row r="83" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B83" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3068,7 @@
     </row>
     <row r="88" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B88" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -3061,22 +3083,22 @@
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B95" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
@@ -3091,22 +3113,22 @@
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B102" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
@@ -3121,22 +3143,22 @@
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B109" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3178,7 @@
     </row>
     <row r="114" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B114" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3198,7 @@
     </row>
     <row r="119" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B119" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3218,7 @@
     </row>
     <row r="124" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B124" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
@@ -3216,7 +3238,7 @@
     </row>
     <row r="129" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B129" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3258,7 @@
     </row>
     <row r="134" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B134" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
@@ -3250,133 +3272,139 @@
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="18" t="s">
-        <v>106</v>
+      <c r="B137" s="18" t="e" cm="1">
+        <f t="array" ref="B137">- PARAMS=SZ a SZ b, (SZ pour sizing measure or category, QR pour quality rule, BF for background fact)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B150" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B152" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="18" t="s">
-        <v>260</v>
+    <row r="153" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B153" s="19" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="18" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="18" t="s">
-        <v>264</v>
+      <c r="B160" s="21" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="18" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3527,7 @@
     <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3652,49 +3680,49 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3706,14 +3734,14 @@
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3725,7 +3753,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3756,35 +3784,35 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -20177,7 +20205,7 @@
     </row>
     <row r="7" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -20189,7 +20217,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -20229,57 +20257,57 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -20302,56 +20330,56 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="24"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="24"/>
     </row>
@@ -20360,17 +20388,17 @@
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20378,7 +20406,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935EE5A5-3902-4263-A1C9-5FD8C7391569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A0E033-0BF2-48BA-8EA1-7D5211B65836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,30 +56,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="275">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -400,12 +378,6 @@
   </si>
   <si>
     <t>- EXPR=b/a, (operators can be +, -, *, / , (, ) )</t>
-  </si>
-  <si>
-    <t>- a=67011,</t>
-  </si>
-  <si>
-    <t>- b=67010,</t>
   </si>
   <si>
     <t>- FORMAT=N0 (N2 by default, if nothing or erroneous format is set),</t>
@@ -1044,9 +1016,6 @@
     <t>* Block Name = METRIC_EVOLUTION</t>
   </si>
   <si>
-    <t>- ID=can be quality indicator ID (BC, TC or QR), or sizing measure, or background fact. Mandatory parameter</t>
-  </si>
-  <si>
     <t>- FORMAT=ABSOLUTE or PERCENT to get the variation either direct value, either percentage. Default is percent. (optional)</t>
   </si>
   <si>
@@ -1078,6 +1047,21 @@
   </si>
   <si>
     <t>You can put a category id instead of a sizing measure, for example 65104 for  very large size artifact.</t>
+  </si>
+  <si>
+    <t>- ID=can be quality indicator ID (BC, TC or QR), or sizing measure, or background fact, or category</t>
+  </si>
+  <si>
+    <t>- PARAMS=SZ a SZ b, (SZ pour sizing measure or category, QR pour quality rule, BF for background fact)</t>
+  </si>
+  <si>
+    <t>- a=id,</t>
+  </si>
+  <si>
+    <t>- b=id,</t>
+  </si>
+  <si>
+    <t>Either ID, either PARAMS and EXPR (for custom expression) should be specified</t>
   </si>
 </sst>
 </file>
@@ -1945,43 +1929,43 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1989,12 +1973,12 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2005,7 +1989,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2030,62 +2014,62 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2093,32 +2077,32 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2143,37 +2127,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2181,7 +2165,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2206,33 +2190,33 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2240,7 +2224,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2268,52 +2252,52 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2321,27 +2305,27 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2366,37 +2350,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2404,7 +2388,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2432,27 +2416,27 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2460,7 +2444,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2487,33 +2471,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2521,12 +2505,12 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2537,7 +2521,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2562,18 +2546,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2584,12 +2568,12 @@
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2600,7 +2584,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2624,33 +2608,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2658,32 +2642,32 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2694,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:B164"/>
+  <dimension ref="B2:B169"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2737,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2777,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -2953,62 +2937,62 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3012,7 @@
     </row>
     <row r="78" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3032,7 @@
     </row>
     <row r="83" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B83" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3052,7 @@
     </row>
     <row r="88" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B88" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -3083,22 +3067,22 @@
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B95" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
@@ -3113,22 +3097,22 @@
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B102" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
@@ -3143,22 +3127,22 @@
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B109" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
@@ -3178,7 +3162,7 @@
     </row>
     <row r="114" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B114" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
@@ -3198,7 +3182,7 @@
     </row>
     <row r="119" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B119" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3202,7 @@
     </row>
     <row r="124" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B124" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3222,7 @@
     </row>
     <row r="129" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B129" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3242,7 @@
     </row>
     <row r="134" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B134" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
@@ -3272,9 +3256,8 @@
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="18" t="e" cm="1">
-        <f t="array" ref="B137">- PARAMS=SZ a SZ b, (SZ pour sizing measure or category, QR pour quality rule, BF for background fact)</f>
-        <v>#NAME?</v>
+      <c r="B137" s="21" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
@@ -3283,83 +3266,83 @@
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="18" t="s">
-        <v>107</v>
+      <c r="B139" s="21" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="18" t="s">
-        <v>108</v>
+      <c r="B140" s="21" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B153" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
@@ -3369,42 +3352,67 @@
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="21" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="18" t="s">
-        <v>263</v>
+      <c r="B161" s="21" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="18" t="s">
-        <v>264</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="18" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="18" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3535,7 @@
     <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3680,49 +3688,49 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3734,14 +3742,14 @@
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3753,7 +3761,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3784,35 +3792,35 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -20205,7 +20213,7 @@
     </row>
     <row r="7" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -20217,7 +20225,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -20257,57 +20265,57 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -20330,56 +20338,56 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="24"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="24"/>
     </row>
@@ -20388,17 +20396,17 @@
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20406,7 +20414,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A0E033-0BF2-48BA-8EA1-7D5211B65836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BECAC86-45EA-4614-B940-3C194624451A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="275">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -468,9 +468,6 @@
   </si>
   <si>
     <t>* Block Name = APPLICATION_METRIC</t>
-  </si>
-  <si>
-    <t>RepGen:TEXT;APPLICATION_METRIC;SZID=10151,SNAPSHOT=PREVIOUS,FORMAT=N0</t>
   </si>
   <si>
     <t>- RULID=quality rule id</t>
@@ -1062,6 +1059,9 @@
   </si>
   <si>
     <t>Either ID, either PARAMS and EXPR (for custom expression) should be specified</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;APPLICATION_METRIC;ID=10151,SNAPSHOT=PREVIOUS,FORMAT=N0</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1781,7 @@
   <dimension ref="B1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,43 +1929,43 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1973,12 +1973,12 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2014,62 +2014,62 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2077,32 +2077,32 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2127,37 +2127,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2190,33 +2190,33 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2252,52 +2252,52 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2305,27 +2305,27 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2350,37 +2350,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2416,27 +2416,27 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2471,33 +2471,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2505,12 +2505,12 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2546,18 +2546,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2568,12 +2568,12 @@
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2608,33 +2608,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2642,32 +2642,32 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2678,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:B169"/>
+  <dimension ref="B2:B177"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -2937,12 +2937,12 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2986,433 +2986,473 @@
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="19" t="s">
-        <v>120</v>
+      <c r="B71" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="21" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
-        <v>31</v>
+      <c r="B75" s="21" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B78" s="19" t="s">
-        <v>121</v>
+      <c r="B76" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B81" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B83" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B88" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="21" t="s">
-        <v>138</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B91" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
-        <v>139</v>
+      <c r="B92" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B95" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="18" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B96" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="18" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B102" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="18" t="s">
-        <v>38</v>
+    <row r="103" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B103" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="18" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B109" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
-        <v>39</v>
+    <row r="110" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B110" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B114" s="19" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B117" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B119" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B122" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B124" s="19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B127" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B129" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B132" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B134" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="21" t="s">
-        <v>271</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B137" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B142" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="21" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="18" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="18" t="s">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="20" t="s">
+    <row r="151" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B151" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="20" t="s">
+    <row r="152" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B152" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B145" s="20" t="s">
+    <row r="153" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B153" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B146" s="20" t="s">
+    <row r="154" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" s="20" t="s">
+    <row r="155" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B155" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="20" t="s">
+    <row r="156" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" s="20" t="s">
+    <row r="157" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B157" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B150" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="18" t="s">
+    <row r="158" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B158" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B153" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="21" t="s">
-        <v>271</v>
+    <row r="161" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B161" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="18" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="21" t="s">
-        <v>272</v>
+      <c r="B163" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="21" t="s">
-        <v>273</v>
+      <c r="B164" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="18" t="s">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="18" t="s">
-        <v>265</v>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="18" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3575,7 @@
     <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3688,49 +3728,49 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3742,14 +3782,14 @@
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3761,7 +3801,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3792,35 +3832,35 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -20213,7 +20253,7 @@
     </row>
     <row r="7" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -20225,7 +20265,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -20265,57 +20305,57 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -20338,56 +20378,56 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="24"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="24"/>
     </row>
@@ -20396,17 +20436,17 @@
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20414,7 +20454,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4AC9AA-6173-46FF-95EB-9B259CAE07FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA0B77-9C39-41EF-A8DA-FCB73FB77437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="3-ListTagsDocByCat" sheetId="26" r:id="rId18"/>
     <sheet name="3-ListViolBookmarks" sheetId="27" r:id="rId19"/>
     <sheet name="3-ActionPlanBookmarksTable" sheetId="28" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="286">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -1093,6 +1094,9 @@
   </si>
   <si>
     <t>RepGen:TABLE;ACTION_PLAN_BOOKMARKS_TABLE;COUNT=-1</t>
+  </si>
+  <si>
+    <t>* TAG=YES|NO, to display the priority using tag or priority (tag by default as this is this value that is set in ED)</t>
   </si>
 </sst>
 </file>
@@ -3499,10 +3503,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6A5E0-9666-42B8-820C-0803FCEF98B6}">
-  <dimension ref="B1:B11"/>
+  <dimension ref="B1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,29 +3537,47 @@
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>174</v>
-      </c>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BF52C-F02F-4980-9FBC-5E2F521BB50A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3937,10 +3959,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8858A-750A-4726-A1F9-D59D03327DAC}">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,39 +4005,46 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="2:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="2:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA0B77-9C39-41EF-A8DA-FCB73FB77437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A11332-B277-46F6-9C82-D8E513DEB76A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="287">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -881,9 +881,6 @@
     <t>* Block Name = AETP_LIST</t>
   </si>
   <si>
-    <t>RepGen:TABLE;AETP_LIST;COUNT=-1</t>
-  </si>
-  <si>
     <r>
       <t>CRITICITY =</t>
     </r>
@@ -1097,6 +1094,12 @@
   </si>
   <si>
     <t>* TAG=YES|NO, to display the priority using tag or priority (tag by default as this is this value that is set in ED)</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AETP_LIST;COUNT=-1,FORMAT=N2</t>
+  </si>
+  <si>
+    <t>FORMAT: The number of decimals for effort complexity, ratio and AETP count (N2 for 2 decimals, N5 for 5 decimals), by default N2.</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1964,7 +1967,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" s="29"/>
     </row>
@@ -1980,27 +1983,27 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2084,22 +2087,22 @@
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2127,7 +2130,7 @@
     </row>
     <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2140,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2415,7 +2418,7 @@
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
@@ -2442,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822C81FE-2BA1-4A3C-ADB8-F42B4B1305BA}">
-  <dimension ref="B1:B8"/>
+  <dimension ref="B1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,21 +2477,26 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2511,33 +2519,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2550,7 +2558,7 @@
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2561,7 +2569,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2586,18 +2594,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2613,7 +2621,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2624,7 +2632,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2648,18 +2656,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2669,12 +2677,12 @@
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2692,12 +2700,12 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2707,7 +2715,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3027,17 +3035,17 @@
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -3047,27 +3055,27 @@
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3337,7 +3345,7 @@
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
@@ -3347,12 +3355,12 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3410,7 @@
     </row>
     <row r="158" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
@@ -3412,17 +3420,17 @@
     </row>
     <row r="161" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B161" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
@@ -3432,27 +3440,27 @@
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
@@ -3462,37 +3470,37 @@
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3513,32 +3521,32 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3556,12 +3564,12 @@
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3698,18 +3706,18 @@
     </row>
     <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3961,7 +3969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8858A-750A-4726-A1F9-D59D03327DAC}">
   <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4007,7 +4015,7 @@
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4151,7 +4159,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4171,25 +4179,25 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="24"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="24"/>
     </row>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A11332-B277-46F6-9C82-D8E513DEB76A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC19309-E6A7-459C-931A-40EF1FFD8E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -31,9 +31,10 @@
     <sheet name="3 - AETP list" sheetId="24" r:id="rId16"/>
     <sheet name="3-CastRulesEvoByQualityCategory" sheetId="25" r:id="rId17"/>
     <sheet name="3-ListTagsDocByCat" sheetId="26" r:id="rId18"/>
-    <sheet name="3-ListViolBookmarks" sheetId="27" r:id="rId19"/>
-    <sheet name="3-ActionPlanBookmarksTable" sheetId="28" r:id="rId20"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId21"/>
+    <sheet name="3-ActionPlanBookmarksTable" sheetId="28" r:id="rId19"/>
+    <sheet name="3-ListViolBookmarks" sheetId="27" r:id="rId20"/>
+    <sheet name="3-OMGTechDebt" sheetId="30" r:id="rId21"/>
+    <sheet name="3-OMGTechDebtDetails" sheetId="31" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="305">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -419,9 +420,6 @@
   </si>
   <si>
     <t>- SNAPSHOT=CURRENT | PREVIOUS (CURRENT by default)</t>
-  </si>
-  <si>
-    <t>2.14. - Technical Debt Result</t>
   </si>
   <si>
     <t>2.15. - Unadjusted Data Function Metric Value</t>
@@ -1101,6 +1099,86 @@
   <si>
     <t>FORMAT: The number of decimals for effort complexity, ratio and AETP count (N2 for 2 decimals, N5 for 5 decimals), by default N2.</t>
   </si>
+  <si>
+    <t>2.27. - OMG Technical Debt (based on a scope of rules)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.14. - Technical Debt Result </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Deprecated (old Cast formula)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, see new component in 2.27</t>
+    </r>
+  </si>
+  <si>
+    <t>This component display the OMG technical debt in Days related to the selected index : ISO, AIP or CISQ</t>
+  </si>
+  <si>
+    <t>ISO option is the recommended technical debt to be used. Requires installation of OMG Technical Debt Measure (&gt;2.0.0 funcrel) and ISO-5055 Index extensions during analysis</t>
+  </si>
+  <si>
+    <t>CISQ option required installation of OMG Technical Debt Measure and CISQ Index extensions during analysis. Scope of rules is reduced</t>
+  </si>
+  <si>
+    <t>* Block Name = OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>* Options =</t>
+  </si>
+  <si>
+    <t>- ID:AIP|CISQ|ISO (by default or if nothing selected, ISO)</t>
+  </si>
+  <si>
+    <t>- SNAPSHOT:CURRENT|PREVIOUS (by default or if nothing, CURRENT)</t>
+  </si>
+  <si>
+    <t>3.18.	OMG Technical Debt (based on a scope of rules)</t>
+  </si>
+  <si>
+    <t>* Block Name = OMG_TECHNICAL_DEBT_TABLE</t>
+  </si>
+  <si>
+    <t>- HEADER:DAYS|SHORT (by default or if nothing selected, displays Days as unit and short name for OMG tech debt, or no unit if SHORT)</t>
+  </si>
+  <si>
+    <t>3.19.	OMG Technical Debt information on contributing TC</t>
+  </si>
+  <si>
+    <t>* Block Name = OMG_TECHNICAL_DEBT_DETAILS_TABLE</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;OMG_TECHNICAL_DEBT_DETAILS_TABLE</t>
+  </si>
+  <si>
+    <t>If a TC has no omg technical debt, it will not be displayed in the table</t>
+  </si>
+  <si>
+    <t>This component can also display the list of rules for a TC (for that you can put the ID of the TC instead of AIP/CISQ or ISO)</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;OMG_TECHNICAL_DEBT_TABLE</t>
+  </si>
 </sst>
 </file>
 
@@ -1109,7 +1187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1370,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1356,7 +1442,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1422,6 +1508,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1819,7 +1907,7 @@
   <dimension ref="B1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,8 +1929,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -1853,16 +1941,16 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
@@ -1910,26 +1998,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
@@ -1967,43 +2055,43 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2011,12 +2099,12 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2027,7 +2115,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2052,62 +2140,62 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2115,32 +2203,32 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2165,37 +2253,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2203,7 +2291,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2228,33 +2316,33 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2262,7 +2350,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2290,52 +2378,52 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2343,27 +2431,27 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2388,42 +2476,42 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2431,7 +2519,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2459,32 +2547,32 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2492,7 +2580,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2519,33 +2607,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2553,12 +2641,12 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2569,7 +2657,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2594,18 +2682,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2616,12 +2704,12 @@
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2632,7 +2720,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2641,81 +2729,66 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C08B-030D-4CD0-9D7A-3D29C37EEAE3}">
-  <dimension ref="B1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6A5E0-9666-42B8-820C-0803FCEF98B6}">
+  <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="90.28515625" customWidth="1"/>
-    <col min="3" max="3" width="109.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>251</v>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2726,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:B177"/>
+  <dimension ref="B2:B187"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2858,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2898,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -2985,22 +3058,22 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -3015,12 +3088,12 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
@@ -3030,22 +3103,22 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -3055,32 +3128,32 @@
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="19" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3173,7 @@
     </row>
     <row r="86" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3193,7 @@
     </row>
     <row r="91" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B91" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3213,7 @@
     </row>
     <row r="96" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B96" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -3155,22 +3228,22 @@
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B103" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
@@ -3185,22 +3258,22 @@
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B110" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
@@ -3215,22 +3288,22 @@
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B117" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3323,7 @@
     </row>
     <row r="122" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B122" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
@@ -3270,7 +3343,7 @@
     </row>
     <row r="127" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B127" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
@@ -3290,7 +3363,7 @@
     </row>
     <row r="132" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B132" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
@@ -3310,7 +3383,7 @@
     </row>
     <row r="137" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B137" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3403,7 @@
     </row>
     <row r="142" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B142" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3418,7 @@
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
@@ -3355,12 +3428,12 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3483,7 @@
     </row>
     <row r="158" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
@@ -3420,17 +3493,17 @@
     </row>
     <row r="161" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B161" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
@@ -3440,27 +3513,27 @@
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
@@ -3470,37 +3543,82 @@
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B179" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="18" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3510,66 +3628,81 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6A5E0-9666-42B8-820C-0803FCEF98B6}">
-  <dimension ref="B1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C08B-030D-4CD0-9D7A-3D29C37EEAE3}">
+  <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="90.28515625" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3579,13 +3712,154 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BF52C-F02F-4980-9FBC-5E2F521BB50A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F453C7-F3E3-4874-9FCA-AA3F6AA509A3}">
+  <dimension ref="B1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3476811A-3061-4775-AFF8-1D8E59D8890D}">
+  <dimension ref="B1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3595,7 +3869,7 @@
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,6 +3918,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3706,24 +3981,24 @@
     </row>
     <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3876,49 +4151,49 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3930,14 +4205,14 @@
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3949,7 +4224,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3980,42 +4255,42 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4023,7 +4298,7 @@
     <row r="7" spans="2:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -4035,7 +4310,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -4075,57 +4350,57 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4138,7 +4413,7 @@
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,56 +4423,56 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="24"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="24"/>
     </row>
@@ -4206,17 +4481,17 @@
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4224,7 +4499,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC19309-E6A7-459C-931A-40EF1FFD8E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7620B41-E86B-42FD-99CC-F4C127C3DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="3-ListViolBookmarks" sheetId="27" r:id="rId20"/>
     <sheet name="3-OMGTechDebt" sheetId="30" r:id="rId21"/>
     <sheet name="3-OMGTechDebtDetails" sheetId="31" r:id="rId22"/>
+    <sheet name="3 - Evolution of iso TD" sheetId="32" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="312">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -1179,6 +1180,101 @@
   <si>
     <t>RepGen:TABLE;OMG_TECHNICAL_DEBT_TABLE</t>
   </si>
+  <si>
+    <t>3.8.	Evolution of OMG Technical Debt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>MORE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>=true : add this one if you want to get the BC attached to ISO or CISQ with their contributors (if false or not specified you will directly have the contributors for the ID)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>EVOLUTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>=true|false to display added and removed technical debt columns. By default or if not exists, is true if there is a previous snapshot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>HEADER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>=NO to not display headers (useful for excel report when you want to define your own customized headers). By default if option is not present or different from NO, headers are displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ISO or CISQ </t>
+    </r>
+  </si>
+  <si>
+    <t>Requires installation of OMG Technical Debt Measure (&gt;2.0.0 funcrel) (and ISO-5055 Index extensions and/or CISQ Index extensions).</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;OMG_TECHNICAL_DEBT_EVOLUTION;ID=ISO,MORE=true,HEADER=NO</t>
+  </si>
 </sst>
 </file>
 
@@ -1187,7 +1283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1378,6 +1474,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1442,7 +1545,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1524,6 +1627,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1906,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3864,6 +3970,84 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F19727-0A4D-46F0-B892-29E8A396F1FB}">
+  <dimension ref="B1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C6"/>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7620B41-E86B-42FD-99CC-F4C127C3DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756E228-475F-40A0-BFAF-DADB04FAFF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="3-OMGTechDebt" sheetId="30" r:id="rId21"/>
     <sheet name="3-OMGTechDebtDetails" sheetId="31" r:id="rId22"/>
     <sheet name="3 - Evolution of iso TD" sheetId="32" r:id="rId23"/>
+    <sheet name="3 - Rules evolution reg. Omg TD" sheetId="33" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">'1 - Information'!$C$20:$F$23</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="317">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -1274,6 +1275,44 @@
   </si>
   <si>
     <t>RepGen:TABLE;OMG_TECHNICAL_DEBT_EVOLUTION;ID=ISO,MORE=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>* Block Name = OMG_TECHNICAL_DEBT_EVOLUTION</t>
+  </si>
+  <si>
+    <t>* Block Name = OMG_TECHNICAL_DEBT_RULES_EVOLUTION</t>
+  </si>
+  <si>
+    <r>
+      <t>- ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>name of index, like ‘ISO-5055-Security’</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>DESC=true : add this one if you want to display the rules descriptions (false by default)</t>
+    </r>
+  </si>
+  <si>
+    <t>RepGen:TABLE;OMG_TECHNICAL_DEBT_RULES_EVOLUTION;ID=ISO-5055-Security,DESC=true,HEADER=NO</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1584,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1613,6 +1652,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1628,7 +1670,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2012,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2035,8 +2077,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -2047,16 +2089,16 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
@@ -2104,26 +2146,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
@@ -3974,7 +4016,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F19727-0A4D-46F0-B892-29E8A396F1FB}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="121.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C80DEE1-1402-4F3F-9664-8981C357215E}">
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3991,55 +4111,50 @@
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>309</v>
+      <c r="B3" s="33" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
-        <v>306</v>
+      <c r="B4" s="39" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>290</v>
-      </c>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>311</v>
+      <c r="B11" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756E228-475F-40A0-BFAF-DADB04FAFF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686C4123-D892-46BC-B790-A40B8C5BB5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="318">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -1313,6 +1313,9 @@
   </si>
   <si>
     <t>RepGen:TABLE;OMG_TECHNICAL_DEBT_RULES_EVOLUTION;ID=ISO-5055-Security,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>* OMG=true : add this option if you have selected an ISO index and want only rules with omg tech debt to be selected (by default it is false). This option has no effect on selection by QR or quality standard tag.</t>
   </si>
 </sst>
 </file>
@@ -1655,6 +1658,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1669,9 +1675,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2054,7 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2077,8 +2080,8 @@
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -2089,16 +2092,16 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
@@ -2146,26 +2149,26 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
@@ -3777,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C08B-030D-4CD0-9D7A-3D29C37EEAE3}">
-  <dimension ref="B1:C14"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,46 +3813,51 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-    </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>173</v>
-      </c>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4120,7 +4128,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>315</v>
       </c>
     </row>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Component library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\zh-CN\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686C4123-D892-46BC-B790-A40B8C5BB5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED4A53-EC34-4F22-B274-1565DB295764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="319">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -1316,6 +1316,9 @@
   </si>
   <si>
     <t>* OMG=true : add this option if you have selected an ISO index and want only rules with omg tech debt to be selected (by default it is false). This option has no effect on selection by QR or quality standard tag.</t>
+  </si>
+  <si>
+    <t>ZERO=YES|NO to display the function with 0 AEP (yes by default)</t>
   </si>
 </sst>
 </file>
@@ -2057,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B587AA6-980F-4560-B177-B792E0F411FE}">
-  <dimension ref="B1:B11"/>
+  <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,20 +2664,25 @@
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
+    <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3782,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A3C08B-030D-4CD0-9D7A-3D29C37EEAE3}">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
